--- a/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,05</t>
+          <t>4,88; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,46</t>
+          <t>3,57; 11,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,25</t>
+          <t>2,13; 8,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,34</t>
+          <t>1,22; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,62</t>
+          <t>1,45; 8,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,05</t>
+          <t>4,02; 12,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,78</t>
+          <t>4,83; 13,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,51</t>
+          <t>4,95; 13,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,49</t>
+          <t>3,9; 9,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,03</t>
+          <t>4,89; 10,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,16</t>
+          <t>4,32; 9,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,51</t>
+          <t>3,52; 8,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,57</t>
+          <t>4,5; 10,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,44</t>
+          <t>3,41; 8,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,5</t>
+          <t>2,26; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,05</t>
+          <t>1,87; 5,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,13</t>
+          <t>4,88; 10,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,06</t>
+          <t>3,52; 9,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,46</t>
+          <t>1,78; 5,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,61</t>
+          <t>1,52; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 9,26</t>
+          <t>5,34; 9,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,14</t>
+          <t>4,11; 8,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,34</t>
+          <t>2,3; 5,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,51</t>
+          <t>1,89; 4,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,67</t>
+          <t>0,0; 57,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,69</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,11</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,05</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>0,0; 29,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,57</t>
+          <t>1,71; 9,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,44</t>
+          <t>2,46; 11,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,5</t>
+          <t>1,02; 9,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,05</t>
+          <t>0,8; 9,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,13</t>
+          <t>0,84; 7,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,06</t>
+          <t>4,01; 15,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,46</t>
+          <t>0,86; 10,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,61</t>
+          <t>2,39; 11,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 9,26</t>
+          <t>1,68; 6,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,14</t>
+          <t>4,21; 11,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,34</t>
+          <t>1,78; 7,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,51</t>
+          <t>2,33; 8,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,05</t>
+          <t>5,12; 14,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,46</t>
+          <t>2,5; 9,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,25</t>
+          <t>2,88; 8,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,34</t>
+          <t>1,6; 6,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,62</t>
+          <t>1,92; 9,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,05</t>
+          <t>2,77; 9,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,78</t>
+          <t>5,73; 13,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,51</t>
+          <t>3,73; 11,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,49</t>
+          <t>4,52; 10,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,03</t>
+          <t>3,47; 8,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,16</t>
+          <t>4,96; 10,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,51</t>
+          <t>3,18; 7,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,5</t>
+          <t>4,36; 10,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,9</t>
+          <t>3,3; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,99</t>
+          <t>1,01; 5,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,95</t>
+          <t>1,33; 5,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,19</t>
+          <t>5,41; 12,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,81</t>
+          <t>3,21; 9,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,5</t>
+          <t>0,43; 4,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,73</t>
+          <t>1,13; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,06</t>
+          <t>5,62; 10,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,69</t>
+          <t>3,98; 8,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,05</t>
+          <t>0,96; 4,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,06</t>
+          <t>1,47; 4,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 9,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 7,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 5,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 4,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 8,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 7,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 6,74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 8,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 7,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 5,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 5,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,82</t>
+          <t>0,0; 60,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,8</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
     </row>
@@ -864,52 +864,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,34</t>
+          <t>1,68; 8,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,64</t>
+          <t>2,51; 11,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,87</t>
+          <t>1,04; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,61</t>
+          <t>0,83; 8,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,15</t>
+          <t>0,84; 7,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 15,21</t>
+          <t>4,13; 15,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,22</t>
+          <t>1,64; 10,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 11,42</t>
+          <t>2,56; 12,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,62</t>
+          <t>1,71; 6,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,07</t>
+          <t>4,2; 11,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,25</t>
+          <t>2,28; 8,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 14,25</t>
+          <t>5,42; 14,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,76</t>
+          <t>2,81; 9,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,96</t>
+          <t>2,47; 8,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,61</t>
+          <t>1,55; 6,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,02</t>
+          <t>1,97; 8,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,38</t>
+          <t>2,93; 9,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,52</t>
+          <t>6,03; 14,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,8</t>
+          <t>3,98; 12,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,36</t>
+          <t>4,52; 10,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,08</t>
+          <t>3,39; 8,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,1</t>
+          <t>5,26; 10,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,65</t>
+          <t>3,09; 7,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,57</t>
+          <t>4,45; 10,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,24</t>
+          <t>3,14; 10,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,55</t>
+          <t>0,54; 5,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,19</t>
+          <t>1,23; 5,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 12,49</t>
+          <t>5,47; 12,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,71</t>
+          <t>3,12; 9,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,27</t>
+          <t>0,43; 3,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,7</t>
+          <t>0,97; 5,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,26</t>
+          <t>5,71; 10,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,62</t>
+          <t>3,87; 8,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,02</t>
+          <t>0,95; 3,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,32</t>
+          <t>1,4; 4,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,45</t>
+          <t>5,12; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,7</t>
+          <t>3,95; 8,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,79</t>
+          <t>2,5; 5,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,93</t>
+          <t>1,91; 4,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,41</t>
+          <t>4,0; 8,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,68</t>
+          <t>4,53; 8,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,38</t>
+          <t>3,62; 7,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,74</t>
+          <t>3,05; 6,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,14</t>
+          <t>5,18; 8,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,59</t>
+          <t>4,62; 7,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,92</t>
+          <t>3,36; 5,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,09</t>
+          <t>2,84; 5,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -724,54 +724,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 15,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 60,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 53,39</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 18,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>0; 26,42</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 15,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 18,74</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>0; 44,41</t>
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,34</t>
+          <t>0,0; 31,1</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,29%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,78%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>3,89%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,76</t>
+          <t>0,42; 7,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,54</t>
+          <t>4,49; 16,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,34</t>
+          <t>0,93; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,73</t>
+          <t>2,85; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,29</t>
+          <t>1,69; 9,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 15,57</t>
+          <t>2,25; 11,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,26</t>
+          <t>1,04; 9,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,09</t>
+          <t>0,85; 9,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,66</t>
+          <t>1,68; 6,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,27</t>
+          <t>4,26; 11,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,7</t>
+          <t>1,81; 7,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,76</t>
+          <t>2,38; 8,81</t>
         </is>
       </c>
     </row>
@@ -936,54 +936,54 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>9,39%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>5,22%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>7,27%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 14,87</t>
+          <t>1,99; 9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,71</t>
+          <t>2,7; 9,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,8</t>
+          <t>5,7; 13,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,79</t>
+          <t>3,61; 11,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,91</t>
+          <t>5,32; 14,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,08</t>
+          <t>2,66; 9,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 14,13</t>
+          <t>2,71; 8,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,24</t>
+          <t>1,45; 6,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,75</t>
+          <t>4,82; 10,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,01</t>
+          <t>3,36; 7,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,07</t>
+          <t>5,03; 9,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,73</t>
+          <t>2,97; 7,54</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,04%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,54%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,58</t>
+          <t>5,12; 12,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 10,06</t>
+          <t>3,33; 9,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,12</t>
+          <t>0,43; 4,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,46</t>
+          <t>1,22; 6,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,61</t>
+          <t>4,25; 10,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,56</t>
+          <t>3,28; 10,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,97</t>
+          <t>0,99; 5,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,18</t>
+          <t>1,31; 5,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,33</t>
+          <t>5,68; 10,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,33</t>
+          <t>4,01; 8,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,76</t>
+          <t>0,95; 3,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,25</t>
+          <t>1,48; 4,85</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,08%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>5,73%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>3,92%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,8</t>
+          <t>4,11; 8,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,25</t>
+          <t>4,5; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,92</t>
+          <t>3,59; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,92</t>
+          <t>3,15; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,22</t>
+          <t>5,24; 9,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,97</t>
+          <t>3,98; 7,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,52</t>
+          <t>2,4; 5,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,65</t>
+          <t>2,0; 5,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,2</t>
+          <t>5,12; 8,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,47</t>
+          <t>4,6; 7,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,99</t>
+          <t>3,41; 6,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,05</t>
+          <t>2,8; 5,22</t>
         </is>
       </c>
     </row>
